--- a/data/tabledata/hospfaelle_quartal.xlsx
+++ b/data/tabledata/hospfaelle_quartal.xlsx
@@ -449,7 +449,7 @@
         <v>2021</v>
       </c>
       <c r="C9" t="n">
-        <v>3685</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>2022</v>
       </c>
       <c r="C10" t="n">
-        <v>1038</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
@@ -496,7 +496,7 @@
         <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>8090</v>
+        <v>8089</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         <v>2020</v>
       </c>
       <c r="C5" t="n">
-        <v>90577</v>
+        <v>90578</v>
       </c>
     </row>
     <row r="6">
@@ -540,7 +540,7 @@
         <v>2021</v>
       </c>
       <c r="C6" t="n">
-        <v>92606</v>
+        <v>92604</v>
       </c>
     </row>
     <row r="7">
@@ -573,7 +573,7 @@
         <v>2021</v>
       </c>
       <c r="C9" t="n">
-        <v>87710</v>
+        <v>87780</v>
       </c>
     </row>
     <row r="10">
@@ -584,7 +584,7 @@
         <v>2022</v>
       </c>
       <c r="C10" t="n">
-        <v>17758</v>
+        <v>18295</v>
       </c>
     </row>
   </sheetData>
